--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/summer21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00703872-464C-3641-AB2A-2E6713F7D157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7EA5D-B14B-0848-922E-C5660B9324EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39720" yWindow="-1000" windowWidth="28800" windowHeight="17500" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="49240" yWindow="120" windowWidth="28800" windowHeight="17500" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,14 +112,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <u/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -467,96 +466,96 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/codyenokida/Projects/dspuci-website-gatsby/src/data/summer21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/summer21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF7EA5D-B14B-0848-922E-C5660B9324EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56512EC1-4F0B-DC45-AA86-232246D6C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49240" yWindow="120" windowWidth="28800" windowHeight="17500" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Megha Bhargava</t>
   </si>
   <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Patrick Tu</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Mohit Shah</t>
+  </si>
+  <si>
+    <t>Grace Hsiang</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/summer21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56512EC1-4F0B-DC45-AA86-232246D6C498}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9D3D1-A1BF-C54D-B8B7-936F4DDB8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -69,34 +69,34 @@
     <t>Vice President of Alumni Relations</t>
   </si>
   <si>
-    <t>Jocelyn Kuo</t>
-  </si>
-  <si>
     <t>Megha Bhargava</t>
   </si>
   <si>
-    <t>Patrick Tu</t>
-  </si>
-  <si>
-    <t>Aarti Vellimedu</t>
-  </si>
-  <si>
-    <t>Jessie Yang</t>
-  </si>
-  <si>
     <t>Grace Till</t>
   </si>
   <si>
     <t>Kevin Cao</t>
   </si>
   <si>
-    <t>Aishu Parsuram</t>
-  </si>
-  <si>
-    <t>Mohit Shah</t>
-  </si>
-  <si>
     <t>Grace Hsiang</t>
+  </si>
+  <si>
+    <t>Aayush Shah</t>
+  </si>
+  <si>
+    <t>Dylan Tanzil</t>
+  </si>
+  <si>
+    <t>Tiffany Than</t>
+  </si>
+  <si>
+    <t>Alex Pham</t>
+  </si>
+  <si>
+    <t>Tommy Truong</t>
+  </si>
+  <si>
+    <t>Sean Devine</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" activeCellId="1" sqref="C11 D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/summer21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B9D3D1-A1BF-C54D-B8B7-936F4DDB8DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A70B8C-3BC4-FA40-9360-5B8B9431665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Megha Bhargava</t>
   </si>
   <si>
-    <t>Grace Till</t>
-  </si>
-  <si>
     <t>Kevin Cao</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Sean Devine</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D13" activeCellId="1" sqref="C11 D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -481,7 +481,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brennenwong/Documents/DSP Website/src/data/summer21/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A70B8C-3BC4-FA40-9360-5B8B9431665E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D857A303-29E1-4991-A542-759C4BAABF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>Sean Devine</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>Grace Till</t>
   </si>
 </sst>
 </file>
@@ -469,9 +469,9 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -495,7 +495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -511,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -519,7 +519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -535,7 +535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -543,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -551,7 +551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Droo\DoT\dspuci-website-gatsby\src\data\summer21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D857A303-29E1-4991-A542-759C4BAABF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF46B1-B596-4A68-814C-F094BC67B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="8436" yWindow="1164" windowWidth="12960" windowHeight="8964" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,31 +72,31 @@
     <t>Megha Bhargava</t>
   </si>
   <si>
-    <t>Kevin Cao</t>
-  </si>
-  <si>
-    <t>Grace Hsiang</t>
-  </si>
-  <si>
     <t>Aayush Shah</t>
   </si>
   <si>
-    <t>Dylan Tanzil</t>
-  </si>
-  <si>
-    <t>Tiffany Than</t>
-  </si>
-  <si>
-    <t>Alex Pham</t>
-  </si>
-  <si>
-    <t>Tommy Truong</t>
-  </si>
-  <si>
     <t>Sean Devine</t>
   </si>
   <si>
-    <t>Grace Till</t>
+    <t>Maxwell Xu</t>
+  </si>
+  <si>
+    <t>Yeseo Han</t>
+  </si>
+  <si>
+    <t>Julia Lin</t>
+  </si>
+  <si>
+    <t>Winnie Qi</t>
+  </si>
+  <si>
+    <t>Jenny Wu</t>
+  </si>
+  <si>
+    <t>David Ayala</t>
+  </si>
+  <si>
+    <t>Forest Huang</t>
   </si>
 </sst>
 </file>
@@ -466,12 +466,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,15 +479,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -495,63 +495,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DF46B1-B596-4A68-814C-F094BC67B49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC773F-8807-4B98-BA93-628884A34B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8436" yWindow="1164" windowWidth="12960" windowHeight="8964" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>Megha Bhargava</t>
   </si>
   <si>
-    <t>Aayush Shah</t>
-  </si>
-  <si>
     <t>Sean Devine</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Forest Huang</t>
+  </si>
+  <si>
+    <t>TBA</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -489,7 +489,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorin\dspuci-website-gatsby\src\data\summer21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBCC773F-8807-4B98-BA93-628884A34B51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6003D-77FC-430A-81BA-F40BB9742DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="4890" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,34 +69,34 @@
     <t>Vice President of Alumni Relations</t>
   </si>
   <si>
-    <t>Megha Bhargava</t>
-  </si>
-  <si>
     <t>Sean Devine</t>
   </si>
   <si>
-    <t>Maxwell Xu</t>
-  </si>
-  <si>
     <t>Yeseo Han</t>
   </si>
   <si>
-    <t>Julia Lin</t>
-  </si>
-  <si>
-    <t>Winnie Qi</t>
-  </si>
-  <si>
     <t>Jenny Wu</t>
   </si>
   <si>
-    <t>David Ayala</t>
-  </si>
-  <si>
-    <t>Forest Huang</t>
-  </si>
-  <si>
-    <t>TBA</t>
+    <t>Aryan Bajaria</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Ronica Cheng</t>
+  </si>
+  <si>
+    <t>Haley Truong</t>
+  </si>
+  <si>
+    <t>Nathan Lee</t>
+  </si>
+  <si>
+    <t>Madeline Li</t>
+  </si>
+  <si>
+    <t>Jorina Chen</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,12 +466,12 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -487,7 +487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -495,65 +495,65 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>11</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EA6003D-77FC-430A-81BA-F40BB9742DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8AD9C-6DDC-4FBA-B701-D8E97B14C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4890" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>Aryan Bajaria</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Ronica Cheng</t>
   </si>
   <si>
@@ -97,6 +94,9 @@
   </si>
   <si>
     <t>Jorina Chen</t>
+  </si>
+  <si>
+    <t>tba</t>
   </si>
 </sst>
 </file>
@@ -466,7 +466,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -497,7 +497,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>4</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>5</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>6</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>8</v>
@@ -537,7 +537,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>9</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>10</v>

--- a/src/data/summer21/leadership_summer21.xlsx
+++ b/src/data/summer21/leadership_summer21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-22.04\home\kcow\code\dspuci-website-gatsby\src\data\summer21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F8AD9C-6DDC-4FBA-B701-D8E97B14C134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E1986F-4979-4508-84CE-75ACF00D77D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="1935" windowWidth="21600" windowHeight="11385" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
+    <workbookView xWindow="7200" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{2C0ED811-1999-2046-A233-A574ADF233C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>Jorina Chen</t>
   </si>
   <si>
-    <t>tba</t>
+    <t>Jessie Yang</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
